--- a/PHP Files/Liquid_2/upload/clientes.xlsx
+++ b/PHP Files/Liquid_2/upload/clientes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,28 +24,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>eisnerh</t>
-  </si>
-  <si>
-    <t>eisner.lopez@gmail.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+  <si>
+    <t>edell</t>
+  </si>
+  <si>
+    <t>marcos</t>
+  </si>
+  <si>
+    <t>luis</t>
+  </si>
+  <si>
+    <t>323244a</t>
+  </si>
+  <si>
+    <t>a3s2a3s4</t>
+  </si>
+  <si>
+    <t>21.08.2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,14 +60,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,10 +86,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -409,16 +403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,22 +422,50 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>123235</v>
+      </c>
+      <c r="B2" s="1">
+        <v>32326532</v>
+      </c>
+      <c r="C2">
+        <v>3235656</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5653254</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>8956497</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="eisner.lopez@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
